--- a/Threshold/Mn/3His/1.xlsx
+++ b/Threshold/Mn/3His/1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Metal_installer_geometric_parameters\Mn\3His\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Threshold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F876503C-8EC9-4160-8A47-1036A0C0917C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093335FE-2135-4823-93A0-6EA59E766136}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14265" windowHeight="9930" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26025" windowHeight="9690" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Parameter</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>ratio_threshold_range</t>
-  </si>
-  <si>
-    <t>theta_threshold_range</t>
   </si>
   <si>
     <t>pie_threshold_range</t>
@@ -427,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158707C9-0263-45BC-A1DA-0371CDFDAA23}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -455,10 +452,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="C2" s="2">
-        <v>12.7</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -466,10 +463,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="C3" s="2">
-        <v>11.1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -477,10 +474,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C4" s="2">
-        <v>1.4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -488,21 +485,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>17.7</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Threshold/Mn/3His/1.xlsx
+++ b/Threshold/Mn/3His/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Threshold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093335FE-2135-4823-93A0-6EA59E766136}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71C91215-44FF-4C1D-A7A6-D53439908323}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26025" windowHeight="9690" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10170" windowHeight="5340" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -477,7 +477,7 @@
         <v>0.9</v>
       </c>
       <c r="C4" s="2">
-        <v>13</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
